--- a/data/virtual_code_list.xlsx
+++ b/data/virtual_code_list.xlsx
@@ -36,11 +36,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1234567899876543</t>
+    <t>******</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>123456</t>
+    <t>6060**********</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -48,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -111,7 +114,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -119,25 +122,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,14 +437,14 @@
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -455,7 +460,7 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -463,14 +468,14 @@
       <c r="A2">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5">
-        <v>42970</v>
+        <v>42947</v>
       </c>
     </row>
     <row r="3" spans="1:5">
